--- a/bh3/547555824271985511_2021-07-15_13-16-15.xlsx
+++ b/bh3/547555824271985511_2021-07-15_13-16-15.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -10899,7 +10899,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>

--- a/bh3/547555824271985511_2021-07-15_13-16-15.xlsx
+++ b/bh3/547555824271985511_2021-07-15_13-16-15.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4947486723</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:38:21</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44396.98496527778</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4927377034</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-17 10:31:01</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44394.43820601852</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-16 11:59:56</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44393.4999537037</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -765,10 +775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:38:25</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44392.86001157408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,10 +869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:45:23</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44392.82318287037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -942,10 +948,8 @@
           <t>4915263825</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:17:24</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44392.76208333333</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1021,10 +1025,8 @@
           <t>4915366242</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:10:39</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44392.75739583333</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1096,10 +1098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:58:22</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44392.74886574074</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1167,10 +1167,8 @@
           <t>4915263825</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:57:42</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44392.74840277778</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1238,10 +1236,8 @@
           <t>4915125266</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:36:18</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44392.73354166667</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1305,10 +1301,8 @@
           <t>4915005458</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:18:20</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44392.72106481482</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1372,10 +1366,8 @@
           <t>4914973170</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:14:28</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44392.71837962963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1439,10 +1431,8 @@
           <t>4914009102</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:45:49</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44392.6984837963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1514,10 +1504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:31:36</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44392.68861111111</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1577,10 +1565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:26:29</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44392.68505787037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1648,10 +1634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:19:58</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44392.68053240741</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1723,10 +1707,8 @@
           <t>4913975521</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:08:01</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44392.67223379629</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1802,10 +1784,8 @@
           <t>4914563624</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:07:45</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44392.67204861111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1881,10 +1861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:05:14</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44392.67030092593</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1948,10 +1926,8 @@
           <t>4914514049</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:00:20</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44392.66689814815</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2027,10 +2003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:59:37</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44392.66640046296</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2106,10 +2080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:58:33</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44392.66565972222</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2181,10 +2153,8 @@
           <t>4914484735</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:55:26</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44392.66349537037</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2252,10 +2222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:48:06</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44392.65840277778</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2327,10 +2295,8 @@
           <t>4914450319</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:47:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44392.65825231482</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2394,10 +2360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:42:37</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44392.65459490741</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2465,10 +2429,8 @@
           <t>4914342175</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:29:45</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44392.64565972222</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2536,10 +2498,8 @@
           <t>4914331150</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:48</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44392.64361111111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2620,10 +2580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:08</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44392.64314814815</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2683,10 +2641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:02</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44392.6430787037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2746,10 +2702,8 @@
           <t>4913975521</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:01</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44392.64306712963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2825,10 +2779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:25:55</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44392.64299768519</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2888,10 +2840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:25:50</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44392.64293981482</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2951,10 +2901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:17:40</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44392.63726851852</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3030,10 +2978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:16:03</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44392.63614583333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3109,10 +3055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:09:07</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44392.63133101852</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3176,10 +3120,8 @@
           <t>4913849701</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:05:09</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44392.62857638889</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3243,10 +3185,8 @@
           <t>4914160820</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:57:14</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44392.62307870371</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3314,10 +3254,8 @@
           <t>4913975521</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:56:19</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44392.62244212963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3393,10 +3331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:54:22</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44392.62108796297</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3464,10 +3400,8 @@
           <t>4914018061</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:51:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44392.61905092592</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3531,10 +3465,8 @@
           <t>4914005051</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:50:47</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44392.61859953704</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3598,10 +3530,8 @@
           <t>4913975521</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:57</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44392.61663194445</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3677,10 +3607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:38</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44392.61641203704</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3752,10 +3680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:21</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44392.61621527778</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3819,10 +3745,8 @@
           <t>4914067377</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:41:07</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44392.61188657407</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3898,10 +3822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:39:04</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44392.61046296296</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3977,10 +3899,8 @@
           <t>4914018061</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:31:57</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44392.60552083333</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4048,10 +3968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:31:54</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44392.60548611111</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4124,10 +4042,8 @@
           <t>4914005051</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:31:38</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44392.60530092593</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4195,10 +4111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:31:32</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44392.60523148148</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4266,10 +4180,8 @@
           <t>4914009102</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:31:13</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44392.60501157407</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4342,10 +4254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:30:52</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44392.60476851852</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4413,10 +4323,8 @@
           <t>4914011512</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:30:00</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44392.60416666666</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4484,10 +4392,8 @@
           <t>4914005051</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:29:04</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44392.60351851852</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4553,10 +4459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:28:35</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44392.60318287037</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4620,10 +4524,8 @@
           <t>4913975521</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:11</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44392.60221064815</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4699,10 +4601,8 @@
           <t>4913616706</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:25:59</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44392.60137731482</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4770,10 +4670,8 @@
           <t>4913616706</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:25:05</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44392.60075231481</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4841,10 +4739,8 @@
           <t>4913975521</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:23:55</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44392.59994212963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4920,10 +4816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:59</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44392.59929398148</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4991,10 +4885,8 @@
           <t>4913616706</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:26</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44392.59891203704</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5058,10 +4950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:23</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44392.59887731481</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5125,10 +5015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:21:03</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44392.59795138889</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5200,10 +5088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:04</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44392.59726851852</v>
       </c>
       <c r="I66" t="n">
         <v>13</v>
@@ -5287,10 +5173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:11</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44392.5966550926</v>
       </c>
       <c r="I67" t="n">
         <v>15</v>
@@ -5354,10 +5238,8 @@
           <t>4913933870</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:17:28</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44392.59546296296</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5429,10 +5311,8 @@
           <t>4913750802</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:15:52</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44392.59435185185</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5504,10 +5384,8 @@
           <t>4913926223</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:14:52</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44392.59365740741</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5579,10 +5457,8 @@
           <t>4913916110</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:17</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44392.59255787037</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5650,10 +5526,8 @@
           <t>4913750802</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:13</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44392.59251157408</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5725,10 +5599,8 @@
           <t>4913823408</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:03</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44392.59239583334</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5800,10 +5672,8 @@
           <t>4913750802</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:12:32</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44392.59203703704</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5875,10 +5745,8 @@
           <t>4913797008</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:09</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44392.58690972222</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5950,10 +5818,8 @@
           <t>4913679362</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:13</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44392.58556712963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6029,10 +5895,8 @@
           <t>4913849701</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:42</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44392.58520833333</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6096,10 +5960,8 @@
           <t>4913844710</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:52</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44392.58462962963</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -6163,10 +6025,8 @@
           <t>4913720488</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:24</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44392.58430555555</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6242,10 +6102,8 @@
           <t>4913842438</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:41</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44392.58380787037</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6321,10 +6179,8 @@
           <t>4913823408</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:01</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44392.58195601852</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6392,10 +6248,8 @@
           <t>4913807708</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:10</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44392.57997685186</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6459,10 +6313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:54:35</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44392.57957175926</v>
       </c>
       <c r="I83" t="n">
         <v>4</v>
@@ -6526,10 +6378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:54:23</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44392.57943287037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6605,10 +6455,8 @@
           <t>4913797008</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:45</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44392.57829861111</v>
       </c>
       <c r="I85" t="n">
         <v>6</v>
@@ -6684,10 +6532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:29</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44392.57741898148</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6755,10 +6601,8 @@
           <t>4913786643</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:14</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44392.57724537037</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -6839,10 +6683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:44</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44392.57689814815</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6910,10 +6752,8 @@
           <t>4913774909</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:23</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44392.57665509259</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6981,10 +6821,8 @@
           <t>4913776269</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:35</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44392.57609953704</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7063,10 +6901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:48:54</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44392.575625</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7134,10 +6970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:48:53</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44392.57561342593</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7201,10 +7035,8 @@
           <t>4913720488</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:48:11</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44392.57512731481</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7285,10 +7117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:57</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44392.57357638889</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7364,10 +7194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:03</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44392.57295138889</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7435,10 +7263,8 @@
           <t>4913750802</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:42</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44392.57270833333</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7502,10 +7328,8 @@
           <t>4913746000</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:36</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44392.57263888889</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7581,10 +7405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:05</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44392.57228009259</v>
       </c>
       <c r="I98" t="n">
         <v>5</v>
@@ -7660,10 +7482,8 @@
           <t>4913741258</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:48</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44392.57208333333</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7727,10 +7547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:21</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44392.57177083333</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7802,10 +7620,8 @@
           <t>4913725320</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:01</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44392.57015046296</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7873,10 +7689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:53</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44392.57005787037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7952,10 +7766,8 @@
           <t>4913717358</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:33</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44392.56982638889</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8023,10 +7835,8 @@
           <t>4913720488</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:41</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44392.56922453704</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8102,10 +7912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:36</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44392.56916666667</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8169,10 +7977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:12</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44392.56888888889</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8244,10 +8050,8 @@
           <t>4913710968</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:58</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44392.56872685185</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8319,10 +8123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:52</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44392.56865740741</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8394,10 +8196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:02</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44392.56807870371</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8469,10 +8269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:52</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44392.56796296296</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8536,10 +8334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:49</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44392.56653935185</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8603,10 +8399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:43</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44392.5664699074</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8670,10 +8464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:33</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44392.56635416667</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8745,10 +8537,8 @@
           <t>4913685669</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:53</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44392.5658912037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8812,10 +8602,8 @@
           <t>4913679796</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:42</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44392.56576388889</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8883,10 +8671,8 @@
           <t>4913679362</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:31</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44392.56563657407</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8959,10 +8745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:26</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44392.5655787037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9030,10 +8814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:12</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44392.56541666666</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9105,10 +8887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:59</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44392.5652662037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9180,10 +8960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:47</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44392.56512731482</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9251,10 +9029,8 @@
           <t>4913658026</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:28</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44392.56421296296</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9330,10 +9106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:50</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44392.56377314815</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9409,10 +9183,8 @@
           <t>4913658951</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:44</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44392.5637037037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9476,10 +9248,8 @@
           <t>4913658026</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:18</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44392.56340277778</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9547,10 +9317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:05</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44392.56325231482</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9614,10 +9382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:29:31</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44392.56216435185</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9693,10 +9459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:33</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44392.56149305555</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9760,10 +9524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:01</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44392.56112268518</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9835,10 +9597,8 @@
           <t>4913616706</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:02</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44392.56043981481</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9906,10 +9666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:55</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44392.5603587963</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9985,10 +9743,8 @@
           <t>4913632416</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:55</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44392.5603587963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10056,10 +9812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:12</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44392.55986111111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10127,10 +9881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:53</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44392.5596412037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10194,10 +9946,8 @@
           <t>4913625936</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:39</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44392.55947916667</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10261,10 +10011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:03</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44392.5590625</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10328,10 +10076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:34</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44392.55872685185</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10403,10 +10149,8 @@
           <t>4913616706</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:27</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44392.55864583333</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10470,10 +10214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:05</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44392.5583912037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10549,10 +10291,8 @@
           <t>4913612077</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:56</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44392.55828703703</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10616,10 +10356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:07</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44392.55771990741</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10687,10 +10425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:47</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44392.55748842593</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10759,10 +10495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:25</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44392.55723379629</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10826,10 +10560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:21</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44392.5571875</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10893,10 +10625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:50</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44392.5568287037</v>
       </c>
       <c r="I144" t="n">
         <v>15</v>
@@ -10968,10 +10698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:44</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44392.55675925926</v>
       </c>
       <c r="I145" t="n">
         <v>9</v>
@@ -11047,10 +10775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:19</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44392.55646990741</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11126,10 +10852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:11</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44392.55637731482</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11205,10 +10929,8 @@
           <t>4913583307</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44392.5555787037</v>
       </c>
       <c r="I148" t="n">
         <v>2</v>
@@ -11284,10 +11006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:27</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44392.55517361111</v>
       </c>
       <c r="I149" t="n">
         <v>5</v>
@@ -11355,10 +11075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:23</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44392.55512731482</v>
       </c>
       <c r="I150" t="n">
         <v>117</v>
@@ -11444,10 +11162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:16</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44392.55504629629</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11517,10 +11233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:13</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44392.55501157408</v>
       </c>
       <c r="I152" t="n">
         <v>52</v>
@@ -11584,10 +11298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:08</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44392.5549537037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11663,10 +11375,8 @@
           <t>4913580816</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:57</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44392.55482638889</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11738,10 +11448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:53</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44392.55478009259</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11809,10 +11517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:38</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44392.55460648148</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11888,10 +11594,8 @@
           <t>4913572645</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:26</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44392.55446759259</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11967,10 +11671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:17</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44392.55436342592</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12042,10 +11744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:07</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44392.55424768518</v>
       </c>
       <c r="I159" t="n">
         <v>99</v>
@@ -12113,10 +11813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:36</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44392.55388888889</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -12184,10 +11882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:33</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44392.55385416667</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12251,10 +11947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:31</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44392.55383101852</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12326,10 +12020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:27</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44392.55378472222</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12405,10 +12097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:20</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44392.55370370371</v>
       </c>
       <c r="I164" t="n">
         <v>215</v>
@@ -12476,10 +12166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:20</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44392.55370370371</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12539,10 +12227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:19</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44392.55369212963</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12618,10 +12304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:15</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44392.55364583333</v>
       </c>
       <c r="I167" t="n">
         <v>9</v>
@@ -12697,10 +12381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:12</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44392.55361111111</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12776,10 +12458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:11</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44392.55359953704</v>
       </c>
       <c r="I169" t="n">
         <v>443</v>
@@ -12851,10 +12531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44392.55357638889</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12930,10 +12608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:56</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44392.55342592593</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13001,10 +12677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44392.55341435185</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13080,10 +12754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:50</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44392.55335648148</v>
       </c>
       <c r="I173" t="n">
         <v>42</v>
@@ -13159,10 +12831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:46</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44392.55331018518</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13239,10 +12909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:45</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44392.55329861111</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13314,10 +12982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:39</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44392.55322916667</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13381,10 +13047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:38</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44392.55321759259</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
